--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Campos obligatorios entidades.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Campos obligatorios entidades.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="24" windowWidth="7140" windowHeight="8496"/>
+    <workbookView xWindow="288" yWindow="24" windowWidth="7140" windowHeight="8496" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Obligatorios" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Datos Obligatorios 1" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
   <si>
     <t>Caja</t>
   </si>
@@ -127,6 +128,12 @@
   </si>
   <si>
     <t xml:space="preserve">Registrar alta de Entidades / Designar Datos Obligatorios </t>
+  </si>
+  <si>
+    <t>Gobierno</t>
+  </si>
+  <si>
+    <t>Justicia</t>
   </si>
 </sst>
 </file>
@@ -416,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,6 +459,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -467,12 +480,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -481,6 +488,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,33 +829,33 @@
       <c r="I2" s="26"/>
     </row>
     <row r="3" spans="2:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1066,11 +1079,11 @@
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -1176,11 +1189,11 @@
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -1272,11 +1285,11 @@
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -1368,11 +1381,11 @@
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -1452,13 +1465,667 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="2.77734375" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.77734375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="2:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="10">
+        <v>15</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="10">
+        <v>6</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="C27" s="10">
+        <v>7</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="10">
+        <v>5</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="10">
+        <v>6</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="2">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+      <c r="C40" s="10">
+        <v>5</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+      <c r="C41" s="10">
+        <v>6</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="3"/>
+      <c r="C43" s="9">
+        <v>1</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
+      <c r="C45" s="2">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="4"/>
+      <c r="C46" s="5">
+        <v>4</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B35:D35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1472,4 +2139,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Campos obligatorios entidades.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Campos obligatorios entidades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="24" windowWidth="7140" windowHeight="8496" activeTab="1"/>
+    <workbookView xWindow="288" yWindow="24" windowWidth="7140" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Obligatorios" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
   <si>
     <t>Caja</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Justicia</t>
+  </si>
+  <si>
+    <t>Criterios de Validación</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,6 +468,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -488,12 +500,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I46"/>
+  <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,35 +818,36 @@
     <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.21875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="30.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="2:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="2:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -849,20 +856,24 @@
       <c r="I3" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="J3" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="9">
         <v>1</v>
@@ -875,8 +886,9 @@
       <c r="G5" s="11"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="2">
         <v>2</v>
@@ -891,8 +903,9 @@
       <c r="G6" s="11"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="2">
         <v>3</v>
@@ -907,8 +920,9 @@
       <c r="G7" s="11"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="2">
         <v>4</v>
@@ -923,8 +937,9 @@
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="2">
         <v>5</v>
@@ -937,8 +952,9 @@
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="2">
         <v>6</v>
@@ -951,8 +967,9 @@
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="2">
         <v>7</v>
@@ -965,8 +982,9 @@
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="2">
         <v>8</v>
@@ -979,8 +997,9 @@
       <c r="G12" s="11"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="2">
         <v>9</v>
@@ -993,8 +1012,9 @@
       <c r="G13" s="11"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="2">
         <v>10</v>
@@ -1007,8 +1027,9 @@
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="2">
         <v>11</v>
@@ -1021,8 +1042,9 @@
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="2">
         <v>12</v>
@@ -1035,8 +1057,9 @@
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="2">
         <v>13</v>
@@ -1049,8 +1072,9 @@
       <c r="G17" s="11"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="2">
         <v>14</v>
@@ -1063,8 +1087,9 @@
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="10">
         <v>15</v>
@@ -1077,20 +1102,22 @@
       <c r="G19" s="11"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="9">
         <v>1</v>
@@ -1103,8 +1130,9 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="2">
         <v>2</v>
@@ -1117,8 +1145,9 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="2">
         <v>3</v>
@@ -1131,8 +1160,9 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="2">
         <v>4</v>
@@ -1145,8 +1175,9 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="2">
         <v>5</v>
@@ -1159,8 +1190,9 @@
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="10">
         <v>6</v>
@@ -1173,8 +1205,9 @@
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="10">
         <v>7</v>
@@ -1187,20 +1220,22 @@
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="s">
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="9">
         <v>1</v>
@@ -1213,8 +1248,9 @@
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="2">
         <v>2</v>
@@ -1227,8 +1263,9 @@
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="2">
         <v>3</v>
@@ -1241,8 +1278,9 @@
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="2">
         <v>4</v>
@@ -1255,8 +1293,9 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="C33" s="10">
         <v>5</v>
@@ -1269,8 +1308,9 @@
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="10">
         <v>6</v>
@@ -1283,20 +1323,22 @@
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="19" t="s">
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
       <c r="C36" s="9">
         <v>1</v>
@@ -1309,8 +1351,9 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="2">
         <v>2</v>
@@ -1323,8 +1366,9 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="2">
         <v>3</v>
@@ -1337,8 +1381,9 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="2">
         <v>4</v>
@@ -1351,8 +1396,9 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
       <c r="C40" s="10">
         <v>5</v>
@@ -1365,8 +1411,9 @@
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
       <c r="C41" s="10">
         <v>6</v>
@@ -1379,20 +1426,22 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="19" t="s">
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
       <c r="C43" s="9">
         <v>1</v>
@@ -1405,8 +1454,9 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
       <c r="C44" s="2">
         <v>2</v>
@@ -1419,8 +1469,9 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
       <c r="C45" s="2">
         <v>3</v>
@@ -1433,8 +1484,9 @@
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="4"/>
       <c r="C46" s="5">
         <v>4</v>
@@ -1447,16 +1499,17 @@
       <c r="G46" s="15"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1467,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1477,32 +1530,32 @@
     <col min="2" max="2" width="2.77734375" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" style="1" customWidth="1"/>
     <col min="9" max="9" width="0.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="2:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="17" t="s">
         <v>26</v>
       </c>
@@ -1513,15 +1566,15 @@
         <v>38</v>
       </c>
       <c r="H3" s="18"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="27"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1745,11 +1798,11 @@
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -1855,11 +1908,11 @@
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -1951,11 +2004,11 @@
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -2047,11 +2100,11 @@
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>

--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Campos obligatorios entidades.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Campos obligatorios entidades.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
   <si>
     <t>Caja</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Criterios de Validación</t>
+  </si>
+  <si>
+    <t>Admite Modificación?</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,14 +471,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -500,6 +503,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J46"/>
+  <dimension ref="B1:L46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,11 +827,13 @@
     <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="30.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="30.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
         <v>36</v>
       </c>
@@ -833,47 +844,57 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="2:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="24"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="9">
         <v>1</v>
@@ -884,11 +905,13 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="2">
         <v>2</v>
@@ -901,11 +924,13 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="2">
         <v>3</v>
@@ -918,11 +943,13 @@
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="2">
         <v>4</v>
@@ -935,11 +962,13 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="2">
         <v>5</v>
@@ -950,11 +979,13 @@
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="2">
         <v>6</v>
@@ -965,11 +996,13 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="2">
         <v>7</v>
@@ -980,11 +1013,13 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="2">
         <v>8</v>
@@ -995,11 +1030,13 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="2">
         <v>9</v>
@@ -1010,11 +1047,13 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="2">
         <v>10</v>
@@ -1025,11 +1064,13 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="2">
         <v>11</v>
@@ -1040,11 +1081,13 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="2">
         <v>12</v>
@@ -1055,11 +1098,13 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="2">
         <v>13</v>
@@ -1070,11 +1115,13 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="2">
         <v>14</v>
@@ -1085,11 +1132,13 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="10">
         <v>15</v>
@@ -1100,24 +1149,28 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="9">
         <v>1</v>
@@ -1128,11 +1181,13 @@
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="2">
         <v>2</v>
@@ -1143,11 +1198,13 @@
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="2">
         <v>3</v>
@@ -1158,11 +1215,13 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="2">
         <v>4</v>
@@ -1173,11 +1232,13 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="2">
         <v>5</v>
@@ -1188,11 +1249,13 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="10">
         <v>6</v>
@@ -1203,11 +1266,13 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="10">
         <v>7</v>
@@ -1218,24 +1283,28 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="24"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="9">
         <v>1</v>
@@ -1246,11 +1315,13 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="2">
         <v>2</v>
@@ -1261,11 +1332,13 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="2">
         <v>3</v>
@@ -1276,11 +1349,13 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="2">
         <v>4</v>
@@ -1291,11 +1366,13 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="C33" s="10">
         <v>5</v>
@@ -1306,11 +1383,13 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="10">
         <v>6</v>
@@ -1321,24 +1400,28 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
       <c r="C36" s="9">
         <v>1</v>
@@ -1349,11 +1432,13 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="2">
         <v>2</v>
@@ -1364,11 +1449,13 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="2">
         <v>3</v>
@@ -1379,11 +1466,13 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="2">
         <v>4</v>
@@ -1394,11 +1483,13 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
       <c r="C40" s="10">
         <v>5</v>
@@ -1409,11 +1500,13 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="12"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
       <c r="C41" s="10">
         <v>6</v>
@@ -1424,24 +1517,28 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="24"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
       <c r="C43" s="9">
         <v>1</v>
@@ -1452,11 +1549,13 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
       <c r="C44" s="2">
         <v>2</v>
@@ -1467,11 +1566,13 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
       <c r="C45" s="2">
         <v>3</v>
@@ -1482,11 +1583,13 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-    </row>
-    <row r="46" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="4"/>
       <c r="C46" s="5">
         <v>4</v>
@@ -1497,19 +1600,21 @@
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B2:L2"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1566,8 +1671,8 @@
         <v>38</v>
       </c>
       <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">

--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Campos obligatorios entidades.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Campos obligatorios entidades.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldevt\OneDrive\Documentos\1- CIDs\MID\documentacion\6- Ingenieria de producto\6.1 - Análisis\04- Archivos de Trabajo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A99D6C-EC21-436F-8534-E3FB95A0E0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="24" windowWidth="7140" windowHeight="8496"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Obligatorios" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
   <si>
     <t>Caja</t>
   </si>
@@ -140,12 +146,27 @@
   </si>
   <si>
     <t>Admite Modificación?</t>
+  </si>
+  <si>
+    <t>Obligatorio</t>
+  </si>
+  <si>
+    <t>Opcional</t>
+  </si>
+  <si>
+    <t>No aplica</t>
+  </si>
+  <si>
+    <t>Registrar alta de Entidades / Designar Datos Obligatorios/Opcionales</t>
+  </si>
+  <si>
+    <t>Agregar historico de comunicación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -453,7 +474,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -477,8 +498,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -495,19 +525,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -519,6 +537,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -567,7 +588,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,9 +621,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -635,6 +673,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -810,11 +865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,45 +889,45 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
+      <c r="B2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="2:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="17" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="18" t="s">
@@ -880,19 +935,21 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="30" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
@@ -902,7 +959,9 @@
       <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -920,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -939,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -957,9 +1016,7 @@
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1156,11 +1213,11 @@
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -1290,11 +1347,11 @@
       <c r="L27" s="12"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -1407,11 +1464,11 @@
       <c r="L34" s="12"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -1524,11 +1581,11 @@
       <c r="L41" s="12"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -1622,10 +1679,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1644,23 +1701,23 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="2:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="17" t="s">
         <v>26</v>
       </c>
@@ -1675,11 +1732,11 @@
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1903,11 +1960,11 @@
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -2013,11 +2070,11 @@
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -2109,11 +2166,11 @@
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -2205,11 +2262,11 @@
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -2288,7 +2345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2300,7 +2357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
